--- a/data/universal/mmv_investments.xlsx
+++ b/data/universal/mmv_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulachristen/Dropbox/MMV ROR/Malaria Investment ROI/Paula 2/files for R Absolute All AL disp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulachristen/Documents/mmv_ror/data/universal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F366114-406F-AD4F-8BDB-9E09D0194590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3E687-52CB-3A4B-BD09-F9B7A60179B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6920" yWindow="1460" windowWidth="27640" windowHeight="15040" xr2:uid="{F1DEA04C-1670-457B-BAD2-29E6FCCC5570}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Amount in USD</t>
   </si>
   <si>
-    <t>In 2022 prices</t>
+    <t>In 2023 prices</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -128,28 +128,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -210,16 +206,24 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Sheet1"/>
+      <sheetName val="mmv investment"/>
+      <sheetName val="Compounded interest rates"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>year</v>
           </cell>
           <cell r="B1" t="str">
-            <v>inflation rate</v>
+            <v>US inflation rate</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>US inflation rate + 1</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Compounded interest rate</v>
           </cell>
         </row>
         <row r="2">
@@ -227,7 +231,13 @@
             <v>1990</v>
           </cell>
           <cell r="B2">
-            <v>2.184174283660588</v>
+            <v>5.3979564399032495E-2</v>
+          </cell>
+          <cell r="C2">
+            <v>1.0539795643990324</v>
+          </cell>
+          <cell r="D2">
+            <v>2.3607549072331282</v>
           </cell>
         </row>
         <row r="3">
@@ -235,7 +245,13 @@
             <v>1991</v>
           </cell>
           <cell r="B3">
-            <v>2.0722716163762684</v>
+            <v>4.2349639645384907E-2</v>
+          </cell>
+          <cell r="C3">
+            <v>1.0423496396453849</v>
+          </cell>
+          <cell r="D3">
+            <v>2.2398488424006633</v>
           </cell>
         </row>
         <row r="4">
@@ -243,7 +259,13 @@
             <v>1992</v>
           </cell>
           <cell r="B4">
-            <v>1.9887443535280882</v>
+            <v>3.0288196781496902E-2</v>
+          </cell>
+          <cell r="C4">
+            <v>1.030288196781497</v>
+          </cell>
+          <cell r="D4">
+            <v>2.1488459891084886</v>
           </cell>
         </row>
         <row r="5">
@@ -251,7 +273,13 @@
             <v>1993</v>
           </cell>
           <cell r="B5">
-            <v>1.9308197607068827</v>
+            <v>2.95165696638559E-2</v>
+          </cell>
+          <cell r="C5">
+            <v>1.029516569663856</v>
+          </cell>
+          <cell r="D5">
+            <v>2.0856746644494604</v>
           </cell>
         </row>
         <row r="6">
@@ -259,7 +287,13 @@
             <v>1994</v>
           </cell>
           <cell r="B6">
-            <v>1.8745822919484298</v>
+            <v>2.6074415921545302E-2</v>
+          </cell>
+          <cell r="C6">
+            <v>1.0260744159215454</v>
+          </cell>
+          <cell r="D6">
+            <v>2.0258777040669171</v>
           </cell>
         </row>
         <row r="7">
@@ -267,7 +301,13 @@
             <v>1995</v>
           </cell>
           <cell r="B7">
-            <v>1.8270782572596778</v>
+            <v>2.80541968853662E-2</v>
+          </cell>
+          <cell r="C7">
+            <v>1.0280541968853663</v>
+          </cell>
+          <cell r="D7">
+            <v>1.9743964693315359</v>
           </cell>
         </row>
         <row r="8">
@@ -275,7 +315,13 @@
             <v>1996</v>
           </cell>
           <cell r="B8">
-            <v>1.7773134798245893</v>
+            <v>2.9312041999344101E-2</v>
+          </cell>
+          <cell r="C8">
+            <v>1.029312041999344</v>
+          </cell>
+          <cell r="D8">
+            <v>1.9205178825330849</v>
           </cell>
         </row>
         <row r="9">
@@ -283,7 +329,13 @@
             <v>1997</v>
           </cell>
           <cell r="B9">
-            <v>1.7255470677908633</v>
+            <v>2.3376899373073502E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.0233768993730734</v>
+          </cell>
+          <cell r="D9">
+            <v>1.8658266921687388</v>
           </cell>
         </row>
         <row r="10">
@@ -291,7 +343,13 @@
             <v>1998</v>
           </cell>
           <cell r="B10">
-            <v>1.6867517769216651</v>
+            <v>1.55227909874364E-2</v>
+          </cell>
+          <cell r="C10">
+            <v>1.0155227909874365</v>
+          </cell>
+          <cell r="D10">
+            <v>1.8232057937908852</v>
           </cell>
         </row>
         <row r="11">
@@ -299,7 +357,13 @@
             <v>1999</v>
           </cell>
           <cell r="B11">
-            <v>1.6601887568126628</v>
+            <v>2.1880271969735802E-2</v>
+          </cell>
+          <cell r="C11">
+            <v>1.0218802719697357</v>
+          </cell>
+          <cell r="D11">
+            <v>1.7953371504524314</v>
           </cell>
         </row>
         <row r="12">
@@ -307,7 +371,13 @@
             <v>2000</v>
           </cell>
           <cell r="B12">
-            <v>1.6244508383685548</v>
+            <v>3.3768572714992902E-2</v>
+          </cell>
+          <cell r="C12">
+            <v>1.033768572714993</v>
+          </cell>
+          <cell r="D12">
+            <v>1.7568957926859783</v>
           </cell>
         </row>
         <row r="13">
@@ -315,7 +385,13 @@
             <v>2001</v>
           </cell>
           <cell r="B13">
-            <v>1.5710356270488921</v>
+            <v>2.8261711188540702E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>1.0282617111885406</v>
+          </cell>
+          <cell r="D13">
+            <v>1.6995059039876124</v>
           </cell>
         </row>
         <row r="14">
@@ -323,7 +399,13 @@
             <v>2002</v>
           </cell>
           <cell r="B14">
-            <v>1.5282447733938642</v>
+            <v>1.5860316265060098E-2</v>
+          </cell>
+          <cell r="C14">
+            <v>1.0158603162650601</v>
+          </cell>
+          <cell r="D14">
+            <v>1.6527950865963865</v>
           </cell>
         </row>
         <row r="15">
@@ -331,7 +413,13 @@
             <v>2003</v>
           </cell>
           <cell r="B15">
-            <v>1.5041779265687634</v>
+            <v>2.2700949733611503E-2</v>
+          </cell>
+          <cell r="C15">
+            <v>1.0227009497336115</v>
+          </cell>
+          <cell r="D15">
+            <v>1.6269905026638876</v>
           </cell>
         </row>
         <row r="16">
@@ -339,7 +427,13 @@
             <v>2004</v>
           </cell>
           <cell r="B16">
-            <v>1.4703596545149207</v>
+            <v>2.6772366930917203E-2</v>
+          </cell>
+          <cell r="C16">
+            <v>1.0267723669309172</v>
+          </cell>
+          <cell r="D16">
+            <v>1.590876104190261</v>
           </cell>
         </row>
         <row r="17">
@@ -347,7 +441,13 @@
             <v>2005</v>
           </cell>
           <cell r="B17">
-            <v>1.4317036558081018</v>
+            <v>3.3927468454955E-2</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0339274684549551</v>
+          </cell>
+          <cell r="D17">
+            <v>1.5493951292685091</v>
           </cell>
         </row>
         <row r="18">
@@ -355,7 +455,13 @@
             <v>2006</v>
           </cell>
           <cell r="B18">
-            <v>1.3846263595823034</v>
+            <v>3.2259441007040403E-2</v>
+          </cell>
+          <cell r="C18">
+            <v>1.0322594410070405</v>
+          </cell>
+          <cell r="D18">
+            <v>1.4985530189886924</v>
           </cell>
         </row>
         <row r="19">
@@ -363,7 +469,13 @@
             <v>2007</v>
           </cell>
           <cell r="B19">
-            <v>1.3416922088975807</v>
+            <v>2.8526724815013803E-2</v>
+          </cell>
+          <cell r="C19">
+            <v>1.0285267248150138</v>
+          </cell>
+          <cell r="D19">
+            <v>1.451721301310406</v>
           </cell>
         </row>
         <row r="20">
@@ -371,7 +483,13 @@
             <v>2008</v>
           </cell>
           <cell r="B20">
-            <v>1.3051480631299424</v>
+            <v>3.8391002966509997E-2</v>
+          </cell>
+          <cell r="C20">
+            <v>1.03839100296651</v>
+          </cell>
+          <cell r="D20">
+            <v>1.4114570543332312</v>
           </cell>
         </row>
         <row r="21">
@@ -379,7 +497,13 @@
             <v>2009</v>
           </cell>
           <cell r="B21">
-            <v>1.2573680762330848</v>
+            <v>-3.55546266299747E-3</v>
+          </cell>
+          <cell r="C21">
+            <v>0.99644453733700256</v>
+          </cell>
+          <cell r="D21">
+            <v>1.3592731931429813</v>
           </cell>
         </row>
         <row r="22">
@@ -387,7 +511,13 @@
             <v>2010</v>
           </cell>
           <cell r="B22">
-            <v>1.2624177472219731</v>
+            <v>1.6400434423899001E-2</v>
+          </cell>
+          <cell r="C22">
+            <v>1.016400434423899</v>
+          </cell>
+          <cell r="D22">
+            <v>1.3641232825417839</v>
           </cell>
         </row>
         <row r="23">
@@ -395,7 +525,13 @@
             <v>2011</v>
           </cell>
           <cell r="B23">
-            <v>1.2425371527775326</v>
+            <v>3.156841568622E-2</v>
+          </cell>
+          <cell r="C23">
+            <v>1.0315684156862199</v>
+          </cell>
+          <cell r="D23">
+            <v>1.3421120616846016</v>
           </cell>
         </row>
         <row r="24">
@@ -403,7 +539,13 @@
             <v>2012</v>
           </cell>
           <cell r="B24">
-            <v>1.2040088689704775</v>
+            <v>2.0693372652606699E-2</v>
+          </cell>
+          <cell r="C24">
+            <v>1.0206933726526066</v>
+          </cell>
+          <cell r="D24">
+            <v>1.3010402812612307</v>
           </cell>
         </row>
         <row r="25">
@@ -411,7 +553,13 @@
             <v>2013</v>
           </cell>
           <cell r="B25">
-            <v>1.1792447296478719</v>
+            <v>1.46483265562717E-2</v>
+          </cell>
+          <cell r="C25">
+            <v>1.0146483265562718</v>
+          </cell>
+          <cell r="D25">
+            <v>1.2746632006437457</v>
           </cell>
         </row>
         <row r="26">
@@ -419,7 +567,13 @@
             <v>2014</v>
           </cell>
           <cell r="B26">
-            <v>1.1618174676333715</v>
+            <v>1.6222229774081699E-2</v>
+          </cell>
+          <cell r="C26">
+            <v>1.0162222297740817</v>
+          </cell>
+          <cell r="D26">
+            <v>1.2562610781313435</v>
           </cell>
         </row>
         <row r="27">
@@ -427,7 +581,13 @@
             <v>2015</v>
           </cell>
           <cell r="B27">
-            <v>1.1435211295604049</v>
+            <v>1.18627135552451E-3</v>
+          </cell>
+          <cell r="C27">
+            <v>1.0011862713555244</v>
+          </cell>
+          <cell r="D27">
+            <v>1.2362070434245716</v>
           </cell>
         </row>
         <row r="28">
@@ -435,7 +595,13 @@
             <v>2016</v>
           </cell>
           <cell r="B28">
-            <v>1.1423787508095955</v>
+            <v>1.26158320570536E-2</v>
+          </cell>
+          <cell r="C28">
+            <v>1.0126158320570535</v>
+          </cell>
+          <cell r="D28">
+            <v>1.2347423039978849</v>
           </cell>
         </row>
         <row r="29">
@@ -443,7 +609,13 @@
             <v>2017</v>
           </cell>
           <cell r="B29">
-            <v>1.127718411460608</v>
+            <v>2.1301100036596101E-2</v>
+          </cell>
+          <cell r="C29">
+            <v>1.0213011000365961</v>
+          </cell>
+          <cell r="D29">
+            <v>1.2193590746942977</v>
           </cell>
         </row>
         <row r="30">
@@ -451,7 +623,13 @@
             <v>2018</v>
           </cell>
           <cell r="B30">
-            <v>1.104523419648</v>
+            <v>2.4425832969281702E-2</v>
+          </cell>
+          <cell r="C30">
+            <v>1.0244258329692817</v>
+          </cell>
+          <cell r="D30">
+            <v>1.1939271138066967</v>
           </cell>
         </row>
         <row r="31">
@@ -459,7 +637,13 @@
             <v>2019</v>
           </cell>
           <cell r="B31">
-            <v>1.0786361519999998</v>
+            <v>1.8122100752602101E-2</v>
+          </cell>
+          <cell r="C31">
+            <v>1.018122100752602</v>
+          </cell>
+          <cell r="D31">
+            <v>1.1654597876999238</v>
           </cell>
         </row>
         <row r="32">
@@ -467,7 +651,13 @@
             <v>2020</v>
           </cell>
           <cell r="B32">
-            <v>1.059564</v>
+            <v>1.2335843963062901E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>1.012335843963063</v>
+          </cell>
+          <cell r="D32">
+            <v>1.1447151445179404</v>
           </cell>
         </row>
         <row r="33">
@@ -475,7 +665,13 @@
             <v>2021</v>
           </cell>
           <cell r="B33">
-            <v>1.0469999999999999</v>
+            <v>4.6978588636374205E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>1.0469785886363743</v>
+          </cell>
+          <cell r="D33">
+            <v>1.1307661892486616</v>
           </cell>
         </row>
         <row r="34">
@@ -483,6 +679,26 @@
             <v>2022</v>
           </cell>
           <cell r="B34">
+            <v>8.00279982052121E-2</v>
+          </cell>
+          <cell r="C34">
+            <v>1.0800279982052121</v>
+          </cell>
+          <cell r="D34">
+            <v>1.0800279982052121</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2023</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>1</v>
+          </cell>
+          <cell r="D35">
             <v>1</v>
           </cell>
         </row>
@@ -493,13 +709,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E729EF01-F4E8-4C49-BF98-19649F9B9DA5}" name="Table13" displayName="Table13" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{D8579A25-AE80-45F9-BB1B-A718BD1A4D93}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E729EF01-F4E8-4C49-BF98-19649F9B9DA5}" name="Table13" displayName="Table13" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25" xr:uid="{D8579A25-AE80-45F9-BB1B-A718BD1A4D93}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58AF5DFE-7172-4150-BAD3-D8C63CE1E8A8}" name="Year" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E8E8870E-5B90-48E0-8102-3F2E6E41B603}" name="Amount in USD" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5BA3C989-63EF-4CC4-B648-028F8688902A}" name="In 2022 prices" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>(B2 * (1 + 0.03)^(2022-A2))*(VLOOKUP($A2,[1]Sheet1!$A$1:$B$34,2,0))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{58AF5DFE-7172-4150-BAD3-D8C63CE1E8A8}" name="Year" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E8E8870E-5B90-48E0-8102-3F2E6E41B603}" name="Amount in USD" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5BA3C989-63EF-4CC4-B648-028F8688902A}" name="In 2023 prices" dataDxfId="0">
+      <calculatedColumnFormula>(B2 * (1 + 0.03)^(2023-A2))*(VLOOKUP($A2,'[1]Compounded interest rates'!A:D,4,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -826,10 +1042,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,72 +1071,72 @@
       <c r="A2" s="3">
         <v>2000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>8609634</v>
       </c>
-      <c r="C2" s="4">
-        <f>(B2 * (1 + 0.03)^(2022-A2))*(VLOOKUP($A2,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>26798482.725263268</v>
+      <c r="C2" s="5">
+        <f>(B2 * (1 + 0.03)^(2023-A2))*(VLOOKUP($A2,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>29852923.001103438</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2001</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>15387591</v>
       </c>
-      <c r="C3" s="4">
-        <f>(B3 * (1 + 0.03)^(2022-A3))*(VLOOKUP($A3,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>44971604.946495108</v>
+      <c r="C3" s="5">
+        <f>(B3 * (1 + 0.03)^(2023-A3))*(VLOOKUP($A3,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>50108598.434393145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2002</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>10578293</v>
       </c>
-      <c r="C4" s="4">
-        <f>(B4 * (1 + 0.03)^(2022-A4))*(VLOOKUP($A4,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>29197993.349801432</v>
+      <c r="C4" s="5">
+        <f>(B4 * (1 + 0.03)^(2023-A4))*(VLOOKUP($A4,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>32524926.510987736</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2003</v>
       </c>
-      <c r="B5" s="4">
-        <v>20874614</v>
-      </c>
-      <c r="C5" s="4">
-        <f>(B5 * (1 + 0.03)^(2022-A5))*(VLOOKUP($A5,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>55058570.836767875</v>
+      <c r="B5" s="5">
+        <v>20821273</v>
+      </c>
+      <c r="C5" s="5">
+        <f>(B5 * (1 + 0.03)^(2023-A5))*(VLOOKUP($A5,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>61183848.431570187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2004</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>27344413</v>
       </c>
-      <c r="C6" s="4">
-        <f>(B6 * (1 + 0.03)^(2022-A6))*(VLOOKUP($A6,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>68448230.763905942</v>
+      <c r="C6" s="5">
+        <f>(B6 * (1 + 0.03)^(2023-A6))*(VLOOKUP($A6,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>76280271.968080223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2005</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>43254967</v>
       </c>
-      <c r="C7" s="4">
-        <f>(B7 * (1 + 0.03)^(2022-A7))*(VLOOKUP($A7,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>102358034.74612938</v>
+      <c r="C7" s="5">
+        <f>(B7 * (1 + 0.03)^(2023-A7))*(VLOOKUP($A7,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>114095421.23384707</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -928,204 +1144,216 @@
       <c r="A8" s="3">
         <v>2006</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>28687435</v>
       </c>
-      <c r="C8" s="4">
-        <f>(B8 * (1 + 0.03)^(2022-A8))*(VLOOKUP($A8,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>63741152.153409749</v>
+      <c r="C8" s="5">
+        <f>(B8 * (1 + 0.03)^(2023-A8))*(VLOOKUP($A8,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>71055328.531220973</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2007</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>74659474</v>
       </c>
-      <c r="C9" s="4">
-        <f>(B9 * (1 + 0.03)^(2022-A9))*(VLOOKUP($A9,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>156061650.00505799</v>
+      <c r="C9" s="5">
+        <f>(B9 * (1 + 0.03)^(2023-A9))*(VLOOKUP($A9,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>173925704.21991992</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2008</v>
       </c>
-      <c r="B10" s="4">
-        <v>53021088</v>
-      </c>
-      <c r="C10" s="4">
-        <f>(B10 * (1 + 0.03)^(2022-A10))*(VLOOKUP($A10,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>104671769.0844159</v>
+      <c r="B10" s="5">
+        <v>53771088</v>
+      </c>
+      <c r="C10" s="5">
+        <f>(B10 * (1 + 0.03)^(2023-A10))*(VLOOKUP($A10,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>118242843.00478078</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2009</v>
       </c>
-      <c r="B11" s="4">
-        <v>41261079</v>
-      </c>
-      <c r="C11" s="4">
-        <f>(B11 * (1 + 0.03)^(2022-A11))*(VLOOKUP($A11,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>76188062.903365597</v>
+      <c r="B11" s="5">
+        <v>41761079</v>
+      </c>
+      <c r="C11" s="5">
+        <f>(B11 * (1 + 0.03)^(2023-A11))*(VLOOKUP($A11,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>85861724.948004141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2010</v>
       </c>
-      <c r="B12" s="4">
-        <v>57427778</v>
-      </c>
-      <c r="C12" s="4">
-        <f>(B12 * (1 + 0.03)^(2022-A12))*(VLOOKUP($A12,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>103364593.39377826</v>
+      <c r="B12" s="5">
+        <v>57927778</v>
+      </c>
+      <c r="C12" s="5">
+        <f>(B12 * (1 + 0.03)^(2023-A12))*(VLOOKUP($A12,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>116044460.20548752</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2011</v>
       </c>
-      <c r="B13" s="4">
-        <v>66362211</v>
-      </c>
-      <c r="C13" s="4">
-        <f>(B13 * (1 + 0.03)^(2022-A13))*(VLOOKUP($A13,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>114140481.98605219</v>
+      <c r="B13" s="5">
+        <v>67046212</v>
+      </c>
+      <c r="C13" s="5">
+        <f>(B13 * (1 + 0.03)^(2023-A13))*(VLOOKUP($A13,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>128294997.27124391</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
-      <c r="B14" s="4">
-        <v>56235790</v>
-      </c>
-      <c r="C14" s="4">
-        <f>(B14 * (1 + 0.03)^(2022-A14))*(VLOOKUP($A14,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>90994414.22385335</v>
+      <c r="B14" s="5">
+        <v>57607665</v>
+      </c>
+      <c r="C14" s="5">
+        <f>(B14 * (1 + 0.03)^(2023-A14))*(VLOOKUP($A14,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>103748180.04707028</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2013</v>
       </c>
-      <c r="B15" s="4">
-        <v>61650021</v>
-      </c>
-      <c r="C15" s="4">
-        <f>(B15 * (1 + 0.03)^(2022-A15))*(VLOOKUP($A15,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>94857613.72226277</v>
+      <c r="B15" s="5">
+        <v>62387977</v>
+      </c>
+      <c r="C15" s="5">
+        <f>(B15 * (1 + 0.03)^(2023-A15))*(VLOOKUP($A15,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>106873147.12894231</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
-      <c r="B16" s="4">
-        <v>75659523</v>
-      </c>
-      <c r="C16" s="4">
-        <f>(B16 * (1 + 0.03)^(2022-A16))*(VLOOKUP($A16,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>111352327.27623674</v>
+      <c r="B16" s="5">
+        <v>77010159</v>
+      </c>
+      <c r="C16" s="5">
+        <f>(B16 * (1 + 0.03)^(2023-A16))*(VLOOKUP($A16,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>126230106.01108603</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
-      <c r="B17" s="4">
-        <v>84889657</v>
-      </c>
-      <c r="C17" s="4">
-        <f>(B17 * (1 + 0.03)^(2022-A17))*(VLOOKUP($A17,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>119387688.97028016</v>
+      <c r="B17" s="5">
+        <v>86281605</v>
+      </c>
+      <c r="C17" s="5">
+        <f>(B17 * (1 + 0.03)^(2023-A17))*(VLOOKUP($A17,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>135116138.98420516</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2016</v>
       </c>
-      <c r="B18" s="4">
-        <v>71859147</v>
-      </c>
-      <c r="C18" s="4">
-        <f>(B18 * (1 + 0.03)^(2022-A18))*(VLOOKUP($A18,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>98020185.966446593</v>
+      <c r="B18" s="5">
+        <v>63995558</v>
+      </c>
+      <c r="C18" s="5">
+        <f>(B18 * (1 + 0.03)^(2023-A18))*(VLOOKUP($A18,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>97182201.053852096</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" s="4">
-        <v>72176654</v>
-      </c>
-      <c r="C19" s="4">
-        <f>(B19 * (1 + 0.03)^(2022-A19))*(VLOOKUP($A19,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>94359045.568416774</v>
+      <c r="B19" s="5">
+        <v>82635297</v>
+      </c>
+      <c r="C19" s="5">
+        <f>(B19 * (1 + 0.03)^(2023-A19))*(VLOOKUP($A19,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>120315216.05673559</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2018</v>
       </c>
-      <c r="B20" s="4">
-        <v>64879377</v>
-      </c>
-      <c r="C20" s="4">
-        <f>(B20 * (1 + 0.03)^(2022-A20))*(VLOOKUP($A20,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>80654851.994501889</v>
+      <c r="B20" s="5">
+        <v>64879371</v>
+      </c>
+      <c r="C20" s="5">
+        <f>(B20 * (1 + 0.03)^(2023-A20))*(VLOOKUP($A20,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>89798807.484815061</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
-      <c r="B21" s="4">
-        <v>71391751</v>
-      </c>
-      <c r="C21" s="4">
-        <f>(B21 * (1 + 0.03)^(2022-A21))*(VLOOKUP($A21,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>84146233.313879877</v>
+      <c r="B21" s="5">
+        <v>71290731</v>
+      </c>
+      <c r="C21" s="5">
+        <f>(B21 * (1 + 0.03)^(2023-A21))*(VLOOKUP($A21,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>93514565.475260228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2020</v>
       </c>
-      <c r="B22" s="4">
-        <v>86852491</v>
-      </c>
-      <c r="C22" s="4">
-        <f>(B22 * (1 + 0.03)^(2022-A22))*(VLOOKUP($A22,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>97630142.335855961</v>
+      <c r="B22" s="5">
+        <v>86952456</v>
+      </c>
+      <c r="C22" s="5">
+        <f>(B22 * (1 + 0.03)^(2023-A22))*(VLOOKUP($A22,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>108765448.73564574</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
-      <c r="B23" s="4">
-        <v>84077451</v>
-      </c>
-      <c r="C23" s="4">
-        <f>(B23 * (1 + 0.03)^(2022-A23))*(VLOOKUP($A23,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>90669963.932909995</v>
+      <c r="B23" s="5">
+        <v>84063802</v>
+      </c>
+      <c r="C23" s="5">
+        <f>(B23 * (1 + 0.03)^(2023-A23))*(VLOOKUP($A23,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>100845446.19830881</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2022</v>
       </c>
-      <c r="B24" s="4">
-        <v>73180104</v>
-      </c>
-      <c r="C24" s="4">
-        <f>(B24 * (1 + 0.03)^(2022-A24))*(VLOOKUP($A24,[1]Sheet1!$A$1:$B$34,2,0))</f>
-        <v>73180104</v>
+      <c r="B24" s="5">
+        <v>73084949</v>
+      </c>
+      <c r="C24" s="5">
+        <f>(B24 * (1 + 0.03)^(2023-A24))*(VLOOKUP($A24,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>81301804.902422011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>77988063</v>
+      </c>
+      <c r="C25" s="5">
+        <f>(B25 * (1 + 0.03)^(2023-A25))*(VLOOKUP($A25,'[1]Compounded interest rates'!A:D,4,0))</f>
+        <v>77988063</v>
       </c>
     </row>
   </sheetData>
